--- a/sectionB_1000.xlsx
+++ b/sectionB_1000.xlsx
@@ -5,22 +5,35 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruchirpurohit/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruchirpurohit/Desktop/ASOC App/v8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB9880C-73EF-1F41-BE38-9D879DDE8079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84CAAED-CCC6-A448-A39A-6C9C5ABE2BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="3820" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="312">
   <si>
     <t>ID</t>
   </si>
@@ -259,597 +272,6 @@
     <t>What is the maximum transmitting power for VHF/UHF for Restricted Grade licensee in India?</t>
   </si>
   <si>
-    <t>a) TRAI</t>
-  </si>
-  <si>
-    <t>b) DOT</t>
-  </si>
-  <si>
-    <t>c) WPC Wing of Ministry of Communications</t>
-  </si>
-  <si>
-    <t>d) BSNL</t>
-  </si>
-  <si>
-    <t>a) 10 W</t>
-  </si>
-  <si>
-    <t>b) 50 W</t>
-  </si>
-  <si>
-    <t>c) 100 W</t>
-  </si>
-  <si>
-    <t>d) 200 W</t>
-  </si>
-  <si>
-    <t>a) DXing</t>
-  </si>
-  <si>
-    <t>b) Contesting</t>
-  </si>
-  <si>
-    <t>c) Encryption</t>
-  </si>
-  <si>
-    <t>d) QRP operation</t>
-  </si>
-  <si>
-    <t>a) 6 kHz</t>
-  </si>
-  <si>
-    <t>b) 2.4 kHz</t>
-  </si>
-  <si>
-    <t>c) 3 kHz</t>
-  </si>
-  <si>
-    <t>d) 15 kHz</t>
-  </si>
-  <si>
-    <t>a) ITU Officer</t>
-  </si>
-  <si>
-    <t>b) RTO Officer</t>
-  </si>
-  <si>
-    <t>c) WPC Monitoring Station Officer</t>
-  </si>
-  <si>
-    <t>d) Local police</t>
-  </si>
-  <si>
-    <t>a) 3.5 MHz</t>
-  </si>
-  <si>
-    <t>b) 7.1 MHz</t>
-  </si>
-  <si>
-    <t>c) 14.2 MHz</t>
-  </si>
-  <si>
-    <t>d) 21.3 MHz</t>
-  </si>
-  <si>
-    <t>a) Morse</t>
-  </si>
-  <si>
-    <t>b) FM broadcast</t>
-  </si>
-  <si>
-    <t>c) Digital voice</t>
-  </si>
-  <si>
-    <t>d) Video transmission</t>
-  </si>
-  <si>
-    <t>a) HF DXing</t>
-  </si>
-  <si>
-    <t>b) Satellite uplink</t>
-  </si>
-  <si>
-    <t>c) VHF local communication</t>
-  </si>
-  <si>
-    <t>d) AM broadcasting</t>
-  </si>
-  <si>
-    <t>a) Every 30 minutes</t>
-  </si>
-  <si>
-    <t>b) Every 10 minutes</t>
-  </si>
-  <si>
-    <t>c) Once per session</t>
-  </si>
-  <si>
-    <t>d) Every 5 minutes</t>
-  </si>
-  <si>
-    <t>a) Receipt of license</t>
-  </si>
-  <si>
-    <t>b) Circuit diagrams</t>
-  </si>
-  <si>
-    <t>c) Logbook</t>
-  </si>
-  <si>
-    <t>d) Antenna height certificate</t>
-  </si>
-  <si>
-    <t>a) November</t>
-  </si>
-  <si>
-    <t>b) Night</t>
-  </si>
-  <si>
-    <t>c) Needle</t>
-  </si>
-  <si>
-    <t>d) Neptune</t>
-  </si>
-  <si>
-    <t>a) 5 years</t>
-  </si>
-  <si>
-    <t>b) 10 years</t>
-  </si>
-  <si>
-    <t>c) 15 years</t>
-  </si>
-  <si>
-    <t>d) Lifetime</t>
-  </si>
-  <si>
-    <t>a) A3E</t>
-  </si>
-  <si>
-    <t>b) F3E</t>
-  </si>
-  <si>
-    <t>c) A1A</t>
-  </si>
-  <si>
-    <t>d) J3E</t>
-  </si>
-  <si>
-    <t>a) Permissible during emergencies</t>
-  </si>
-  <si>
-    <t>b) A minor offense</t>
-  </si>
-  <si>
-    <t>c) Encouraged</t>
-  </si>
-  <si>
-    <t>d) Prohibited</t>
-  </si>
-  <si>
-    <t>a) Phone logs</t>
-  </si>
-  <si>
-    <t>b) Power bills</t>
-  </si>
-  <si>
-    <t>c) Operating logbook</t>
-  </si>
-  <si>
-    <t>d) Daily schedule</t>
-  </si>
-  <si>
-    <t>a) Commercial profit</t>
-  </si>
-  <si>
-    <t>b) Personal entertainment</t>
-  </si>
-  <si>
-    <t>c) Self-training and communication</t>
-  </si>
-  <si>
-    <t>d) News broadcasting</t>
-  </si>
-  <si>
-    <t>a) Nothing</t>
-  </si>
-  <si>
-    <t>b) Warning only</t>
-  </si>
-  <si>
-    <t>c) License can be suspended or cancelled</t>
-  </si>
-  <si>
-    <t>d) Promotion to higher grade</t>
-  </si>
-  <si>
-    <t>a) Be grounded</t>
-  </si>
-  <si>
-    <t>b) Interfere with aviation paths</t>
-  </si>
-  <si>
-    <t>c) Be taller than 5 feet</t>
-  </si>
-  <si>
-    <t>d) Be made of copper</t>
-  </si>
-  <si>
-    <t>a) Allowed on Sundays</t>
-  </si>
-  <si>
-    <t>b) Allowed at low volume</t>
-  </si>
-  <si>
-    <t>c) Strictly prohibited</t>
-  </si>
-  <si>
-    <t>d) Allowed on 2m band</t>
-  </si>
-  <si>
-    <t>a) Calling CQ</t>
-  </si>
-  <si>
-    <t>b) Operating repeater</t>
-  </si>
-  <si>
-    <t>c) One-way communication to the public</t>
-  </si>
-  <si>
-    <t>d) Talking to DX</t>
-  </si>
-  <si>
-    <t>a) Illegal</t>
-  </si>
-  <si>
-    <t>b) Not recommended</t>
-  </si>
-  <si>
-    <t>c) Social service</t>
-  </si>
-  <si>
-    <t>d) Commercial use</t>
-  </si>
-  <si>
-    <t>a) Unauthorized DX</t>
-  </si>
-  <si>
-    <t>b) Emergency drills</t>
-  </si>
-  <si>
-    <t>c) Special events</t>
-  </si>
-  <si>
-    <t>d) Hidden transmission</t>
-  </si>
-  <si>
-    <t>a) Any noise heard</t>
-  </si>
-  <si>
-    <t>b) Interference that disrupts services</t>
-  </si>
-  <si>
-    <t>c) Local QRM</t>
-  </si>
-  <si>
-    <t>d) Man-made RFI only</t>
-  </si>
-  <si>
-    <t>a) Age 18 and above</t>
-  </si>
-  <si>
-    <t>b) Engineering degree</t>
-  </si>
-  <si>
-    <t>c) Age 12 and above with test passed</t>
-  </si>
-  <si>
-    <t>d) Any government employee</t>
-  </si>
-  <si>
-    <t>a) English, French, Spanish</t>
-  </si>
-  <si>
-    <t>b) English only</t>
-  </si>
-  <si>
-    <t>c) English and Hindi</t>
-  </si>
-  <si>
-    <t>d) Arabic and Chinese only</t>
-  </si>
-  <si>
-    <t>a) VU2</t>
-  </si>
-  <si>
-    <t>b) VU4</t>
-  </si>
-  <si>
-    <t>c) VU3</t>
-  </si>
-  <si>
-    <t>d) VU5</t>
-  </si>
-  <si>
-    <t>a) QRZ</t>
-  </si>
-  <si>
-    <t>b) QRU</t>
-  </si>
-  <si>
-    <t>c) QRT</t>
-  </si>
-  <si>
-    <t>d) QRV</t>
-  </si>
-  <si>
-    <t>a) QRX</t>
-  </si>
-  <si>
-    <t>b) QSK</t>
-  </si>
-  <si>
-    <t>c) QRQ</t>
-  </si>
-  <si>
-    <t>d) QRL</t>
-  </si>
-  <si>
-    <t>a) QTH</t>
-  </si>
-  <si>
-    <t>b) QRG</t>
-  </si>
-  <si>
-    <t>c) QRH</t>
-  </si>
-  <si>
-    <t>d) QRS</t>
-  </si>
-  <si>
-    <t>a) QSL</t>
-  </si>
-  <si>
-    <t>b) QRM</t>
-  </si>
-  <si>
-    <t>c) QSB</t>
-  </si>
-  <si>
-    <t>d) QSA</t>
-  </si>
-  <si>
-    <t>c) QRK</t>
-  </si>
-  <si>
-    <t>d) QSB</t>
-  </si>
-  <si>
-    <t>a) Watts</t>
-  </si>
-  <si>
-    <t>b) Weather</t>
-  </si>
-  <si>
-    <t>c) Weekday</t>
-  </si>
-  <si>
-    <t>d) Warning</t>
-  </si>
-  <si>
-    <t>a) CL</t>
-  </si>
-  <si>
-    <t>b) AR</t>
-  </si>
-  <si>
-    <t>c) SK</t>
-  </si>
-  <si>
-    <t>d) VA</t>
-  </si>
-  <si>
-    <t>a) R-5, S-9, T-9</t>
-  </si>
-  <si>
-    <t>b) R-9, S-5, T-9</t>
-  </si>
-  <si>
-    <t>c) R-5, S-5, T-5</t>
-  </si>
-  <si>
-    <t>d) R-9, S-9, T-5</t>
-  </si>
-  <si>
-    <t>b) QTH</t>
-  </si>
-  <si>
-    <t>c) QRV</t>
-  </si>
-  <si>
-    <t>d) QRX</t>
-  </si>
-  <si>
-    <t>a) Wireless Permit and Control</t>
-  </si>
-  <si>
-    <t>b) Wireless Planning and Coordination</t>
-  </si>
-  <si>
-    <t>c) Wireless Programming Committee</t>
-  </si>
-  <si>
-    <t>d) Wave Propagation Control</t>
-  </si>
-  <si>
-    <t>a) International Transmitting Union</t>
-  </si>
-  <si>
-    <t>b) Indian Telecommunication Union</t>
-  </si>
-  <si>
-    <t>c) International Telecommunication Union</t>
-  </si>
-  <si>
-    <t>d) Intercontinental Telecom Utility</t>
-  </si>
-  <si>
-    <t>a) Stop Transmission</t>
-  </si>
-  <si>
-    <t>b) Attention all stations</t>
-  </si>
-  <si>
-    <t>c) End of Message</t>
-  </si>
-  <si>
-    <t>d) Change Frequency</t>
-  </si>
-  <si>
-    <t>a) Shall I reduce power?</t>
-  </si>
-  <si>
-    <t>b) Shall I stop sending?</t>
-  </si>
-  <si>
-    <t>c) Can you acknowledge receipt?</t>
-  </si>
-  <si>
-    <t>d) Can I call you again?</t>
-  </si>
-  <si>
-    <t>a) QRA</t>
-  </si>
-  <si>
-    <t>b) CL</t>
-  </si>
-  <si>
-    <t>c) CQ</t>
-  </si>
-  <si>
-    <t>d) SOS</t>
-  </si>
-  <si>
-    <t>a) AM voice</t>
-  </si>
-  <si>
-    <t>b) CW Morse</t>
-  </si>
-  <si>
-    <t>c) FM voice</t>
-  </si>
-  <si>
-    <t>d) Digital modes</t>
-  </si>
-  <si>
-    <t>a) The logging station</t>
-  </si>
-  <si>
-    <t>b) The station licensee</t>
-  </si>
-  <si>
-    <t>c) The radio inspector</t>
-  </si>
-  <si>
-    <t>d) The receiver</t>
-  </si>
-  <si>
-    <t>a) 1 year</t>
-  </si>
-  <si>
-    <t>b) 2 years</t>
-  </si>
-  <si>
-    <t>c) 5 years</t>
-  </si>
-  <si>
-    <t>d) 10 years</t>
-  </si>
-  <si>
-    <t>a) Weather data</t>
-  </si>
-  <si>
-    <t>b) Power used</t>
-  </si>
-  <si>
-    <t>c) Frequency and contact info</t>
-  </si>
-  <si>
-    <t>d) Equipment type</t>
-  </si>
-  <si>
-    <t>a) IN</t>
-  </si>
-  <si>
-    <t>b) VU</t>
-  </si>
-  <si>
-    <t>c) IND</t>
-  </si>
-  <si>
-    <t>d) IA</t>
-  </si>
-  <si>
-    <t>a) 7 MHz</t>
-  </si>
-  <si>
-    <t>b) 14 MHz</t>
-  </si>
-  <si>
-    <t>c) 27 MHz</t>
-  </si>
-  <si>
-    <t>d) 144 MHz</t>
-  </si>
-  <si>
-    <t>a) 10</t>
-  </si>
-  <si>
-    <t>b) 12</t>
-  </si>
-  <si>
-    <t>c) 15</t>
-  </si>
-  <si>
-    <t>d) 18</t>
-  </si>
-  <si>
-    <t>a) End of message</t>
-  </si>
-  <si>
-    <t>b) Start of message</t>
-  </si>
-  <si>
-    <t>c) Repeat please</t>
-  </si>
-  <si>
-    <t>d) Silence requested</t>
-  </si>
-  <si>
-    <t>a) QRS</t>
-  </si>
-  <si>
-    <t>b) QRP</t>
-  </si>
-  <si>
-    <t>c) QRO</t>
-  </si>
-  <si>
-    <t>d) QRZ</t>
-  </si>
-  <si>
-    <t>a) Digital Satellite News Gathering</t>
-  </si>
-  <si>
-    <t>b) Direct Satellite Newscast Gateway</t>
-  </si>
-  <si>
-    <t>c) Dynamic Signal Network Guide</t>
-  </si>
-  <si>
-    <t>d) Directional Satellite Navigation Guide</t>
-  </si>
-  <si>
     <t>The Q-code for 'Are you ready?'</t>
   </si>
   <si>
@@ -1001,6 +423,552 @@
   </si>
   <si>
     <t>Which band is not allocated to amateur radio?</t>
+  </si>
+  <si>
+    <t>TRAI</t>
+  </si>
+  <si>
+    <t>10 W</t>
+  </si>
+  <si>
+    <t>DXing</t>
+  </si>
+  <si>
+    <t>6 kHz</t>
+  </si>
+  <si>
+    <t>ITU Officer</t>
+  </si>
+  <si>
+    <t>3.5 MHz</t>
+  </si>
+  <si>
+    <t>Morse</t>
+  </si>
+  <si>
+    <t>HF DXing</t>
+  </si>
+  <si>
+    <t>Every 30 minutes</t>
+  </si>
+  <si>
+    <t>Receipt of license</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>5 years</t>
+  </si>
+  <si>
+    <t>A3E</t>
+  </si>
+  <si>
+    <t>Permissible during emergencies</t>
+  </si>
+  <si>
+    <t>Phone logs</t>
+  </si>
+  <si>
+    <t>Commercial profit</t>
+  </si>
+  <si>
+    <t>Nothing</t>
+  </si>
+  <si>
+    <t>Be grounded</t>
+  </si>
+  <si>
+    <t>Allowed on Sundays</t>
+  </si>
+  <si>
+    <t>Calling CQ</t>
+  </si>
+  <si>
+    <t>Illegal</t>
+  </si>
+  <si>
+    <t>Unauthorized DX</t>
+  </si>
+  <si>
+    <t>Any noise heard</t>
+  </si>
+  <si>
+    <t>Age 18 and above</t>
+  </si>
+  <si>
+    <t>English, French, Spanish</t>
+  </si>
+  <si>
+    <t>VU2</t>
+  </si>
+  <si>
+    <t>QRZ</t>
+  </si>
+  <si>
+    <t>QRX</t>
+  </si>
+  <si>
+    <t>QTH</t>
+  </si>
+  <si>
+    <t>QSL</t>
+  </si>
+  <si>
+    <t>Watts</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>R-5, S-9, T-9</t>
+  </si>
+  <si>
+    <t>Wireless Permit and Control</t>
+  </si>
+  <si>
+    <t>International Transmitting Union</t>
+  </si>
+  <si>
+    <t>Stop Transmission</t>
+  </si>
+  <si>
+    <t>QRA</t>
+  </si>
+  <si>
+    <t>AM voice</t>
+  </si>
+  <si>
+    <t>The logging station</t>
+  </si>
+  <si>
+    <t>1 year</t>
+  </si>
+  <si>
+    <t>Weather data</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>7 MHz</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>End of message</t>
+  </si>
+  <si>
+    <t>QRS</t>
+  </si>
+  <si>
+    <t>Digital Satellite News Gathering</t>
+  </si>
+  <si>
+    <t>DOT</t>
+  </si>
+  <si>
+    <t>50 W</t>
+  </si>
+  <si>
+    <t>Contesting</t>
+  </si>
+  <si>
+    <t>2.4 kHz</t>
+  </si>
+  <si>
+    <t>RTO Officer</t>
+  </si>
+  <si>
+    <t>7.1 MHz</t>
+  </si>
+  <si>
+    <t>FM broadcast</t>
+  </si>
+  <si>
+    <t>Satellite uplink</t>
+  </si>
+  <si>
+    <t>Every 10 minutes</t>
+  </si>
+  <si>
+    <t>Circuit diagrams</t>
+  </si>
+  <si>
+    <t>Night</t>
+  </si>
+  <si>
+    <t>10 years</t>
+  </si>
+  <si>
+    <t>F3E</t>
+  </si>
+  <si>
+    <t>A minor offense</t>
+  </si>
+  <si>
+    <t>Power bills</t>
+  </si>
+  <si>
+    <t>Personal entertainment</t>
+  </si>
+  <si>
+    <t>Warning only</t>
+  </si>
+  <si>
+    <t>Interfere with aviation paths</t>
+  </si>
+  <si>
+    <t>Allowed at low volume</t>
+  </si>
+  <si>
+    <t>Operating repeater</t>
+  </si>
+  <si>
+    <t>Not recommended</t>
+  </si>
+  <si>
+    <t>Emergency drills</t>
+  </si>
+  <si>
+    <t>Interference that disrupts services</t>
+  </si>
+  <si>
+    <t>Engineering degree</t>
+  </si>
+  <si>
+    <t>English only</t>
+  </si>
+  <si>
+    <t>VU4</t>
+  </si>
+  <si>
+    <t>QRU</t>
+  </si>
+  <si>
+    <t>QSK</t>
+  </si>
+  <si>
+    <t>QRG</t>
+  </si>
+  <si>
+    <t>QRM</t>
+  </si>
+  <si>
+    <t>Weather</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>R-9, S-5, T-9</t>
+  </si>
+  <si>
+    <t>Wireless Planning and Coordination</t>
+  </si>
+  <si>
+    <t>Indian Telecommunication Union</t>
+  </si>
+  <si>
+    <t>Attention all stations</t>
+  </si>
+  <si>
+    <t>Shall I stop sending?</t>
+  </si>
+  <si>
+    <t>CW Morse</t>
+  </si>
+  <si>
+    <t>The station licensee</t>
+  </si>
+  <si>
+    <t>2 years</t>
+  </si>
+  <si>
+    <t>Power used</t>
+  </si>
+  <si>
+    <t>VU</t>
+  </si>
+  <si>
+    <t>14 MHz</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Start of message</t>
+  </si>
+  <si>
+    <t>QRP</t>
+  </si>
+  <si>
+    <t>Direct Satellite Newscast Gateway</t>
+  </si>
+  <si>
+    <t>WPC Wing of Ministry of Communications</t>
+  </si>
+  <si>
+    <t>100 W</t>
+  </si>
+  <si>
+    <t>Encryption</t>
+  </si>
+  <si>
+    <t>3 kHz</t>
+  </si>
+  <si>
+    <t>WPC Monitoring Station Officer</t>
+  </si>
+  <si>
+    <t>14.2 MHz</t>
+  </si>
+  <si>
+    <t>Digital voice</t>
+  </si>
+  <si>
+    <t>VHF local communication</t>
+  </si>
+  <si>
+    <t>Once per session</t>
+  </si>
+  <si>
+    <t>Logbook</t>
+  </si>
+  <si>
+    <t>Needle</t>
+  </si>
+  <si>
+    <t>A1A</t>
+  </si>
+  <si>
+    <t>Encouraged</t>
+  </si>
+  <si>
+    <t>Operating logbook</t>
+  </si>
+  <si>
+    <t>Self-training and communication</t>
+  </si>
+  <si>
+    <t>License can be suspended or cancelled</t>
+  </si>
+  <si>
+    <t>Be taller than 5 feet</t>
+  </si>
+  <si>
+    <t>Strictly prohibited</t>
+  </si>
+  <si>
+    <t>One-way communication to the public</t>
+  </si>
+  <si>
+    <t>Social service</t>
+  </si>
+  <si>
+    <t>Special events</t>
+  </si>
+  <si>
+    <t>Local QRM</t>
+  </si>
+  <si>
+    <t>Age 12 and above with test passed</t>
+  </si>
+  <si>
+    <t>English and Hindi</t>
+  </si>
+  <si>
+    <t>VU3</t>
+  </si>
+  <si>
+    <t>QRT</t>
+  </si>
+  <si>
+    <t>QRQ</t>
+  </si>
+  <si>
+    <t>QRH</t>
+  </si>
+  <si>
+    <t>QSB</t>
+  </si>
+  <si>
+    <t>QRK</t>
+  </si>
+  <si>
+    <t>Weekday</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>R-5, S-5, T-5</t>
+  </si>
+  <si>
+    <t>QRV</t>
+  </si>
+  <si>
+    <t>Wireless Programming Committee</t>
+  </si>
+  <si>
+    <t>International Telecommunication Union</t>
+  </si>
+  <si>
+    <t>End of Message</t>
+  </si>
+  <si>
+    <t>Can you acknowledge receipt?</t>
+  </si>
+  <si>
+    <t>FM voice</t>
+  </si>
+  <si>
+    <t>The radio inspector</t>
+  </si>
+  <si>
+    <t>Frequency and contact info</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>27 MHz</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Repeat please</t>
+  </si>
+  <si>
+    <t>QRO</t>
+  </si>
+  <si>
+    <t>Dynamic Signal Network Guide</t>
+  </si>
+  <si>
+    <t>200 W</t>
+  </si>
+  <si>
+    <t>QRP operation</t>
+  </si>
+  <si>
+    <t>15 kHz</t>
+  </si>
+  <si>
+    <t>Local police</t>
+  </si>
+  <si>
+    <t>21.3 MHz</t>
+  </si>
+  <si>
+    <t>Video transmission</t>
+  </si>
+  <si>
+    <t>AM broadcasting</t>
+  </si>
+  <si>
+    <t>Every 5 minutes</t>
+  </si>
+  <si>
+    <t>Antenna height certificate</t>
+  </si>
+  <si>
+    <t>Neptune</t>
+  </si>
+  <si>
+    <t>Lifetime</t>
+  </si>
+  <si>
+    <t>J3E</t>
+  </si>
+  <si>
+    <t>Prohibited</t>
+  </si>
+  <si>
+    <t>Daily schedule</t>
+  </si>
+  <si>
+    <t>News broadcasting</t>
+  </si>
+  <si>
+    <t>Promotion to higher grade</t>
+  </si>
+  <si>
+    <t>Be made of copper</t>
+  </si>
+  <si>
+    <t>Allowed on 2m band</t>
+  </si>
+  <si>
+    <t>Talking to DX</t>
+  </si>
+  <si>
+    <t>Commercial use</t>
+  </si>
+  <si>
+    <t>Hidden transmission</t>
+  </si>
+  <si>
+    <t>Man-made RFI only</t>
+  </si>
+  <si>
+    <t>Any government employee</t>
+  </si>
+  <si>
+    <t>Arabic and Chinese only</t>
+  </si>
+  <si>
+    <t>VU5</t>
+  </si>
+  <si>
+    <t>QSA</t>
+  </si>
+  <si>
+    <t>Warning</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>R-9, S-9, T-5</t>
+  </si>
+  <si>
+    <t>Wave Propagation Control</t>
+  </si>
+  <si>
+    <t>Intercontinental Telecom Utility</t>
+  </si>
+  <si>
+    <t>Change Frequency</t>
+  </si>
+  <si>
+    <t>Can I call you again?</t>
+  </si>
+  <si>
+    <t>Digital modes</t>
+  </si>
+  <si>
+    <t>The receiver</t>
+  </si>
+  <si>
+    <t>Equipment type</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>144 MHz</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Silence requested</t>
+  </si>
+  <si>
+    <t>Directional Satellite Navigation Guide</t>
   </si>
 </sst>
 </file>
@@ -1380,8 +1348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1787,1379 +1755,1619 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>290</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="E16" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
       <c r="F16" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" t="str">
+        <f>RIGHT(F16, LEN(F16) - 3)</f>
+        <v>L</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>291</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="D17" t="s">
-        <v>84</v>
+        <v>178</v>
       </c>
       <c r="E17" t="s">
-        <v>85</v>
+        <v>225</v>
       </c>
       <c r="F17" t="s">
-        <v>86</v>
+        <v>271</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" t="str">
+        <f t="shared" ref="H17:H75" si="0">RIGHT(F17, LEN(F17) - 3)</f>
+        <v xml:space="preserve"> W</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>292</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="D18" t="s">
-        <v>88</v>
+        <v>179</v>
       </c>
       <c r="E18" t="s">
-        <v>89</v>
+        <v>226</v>
       </c>
       <c r="F18" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> operation</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>293</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="D19" t="s">
-        <v>92</v>
+        <v>180</v>
       </c>
       <c r="E19" t="s">
-        <v>93</v>
+        <v>227</v>
       </c>
       <c r="F19" t="s">
-        <v>94</v>
+        <v>273</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>kHz</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>294</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="D20" t="s">
-        <v>96</v>
+        <v>181</v>
       </c>
       <c r="E20" t="s">
-        <v>97</v>
+        <v>228</v>
       </c>
       <c r="F20" t="s">
-        <v>98</v>
+        <v>274</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>al police</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>295</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="D21" t="s">
-        <v>100</v>
+        <v>182</v>
       </c>
       <c r="E21" t="s">
-        <v>101</v>
+        <v>229</v>
       </c>
       <c r="F21" t="s">
-        <v>102</v>
+        <v>275</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>3 MHz</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>296</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="D22" t="s">
-        <v>104</v>
+        <v>183</v>
       </c>
       <c r="E22" t="s">
-        <v>105</v>
+        <v>230</v>
       </c>
       <c r="F22" t="s">
-        <v>106</v>
+        <v>276</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>eo transmission</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>297</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="D23" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="E23" t="s">
-        <v>109</v>
+        <v>231</v>
       </c>
       <c r="F23" t="s">
-        <v>110</v>
+        <v>277</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v>broadcasting</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>298</v>
+        <v>101</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="D24" t="s">
-        <v>112</v>
+        <v>185</v>
       </c>
       <c r="E24" t="s">
-        <v>113</v>
+        <v>232</v>
       </c>
       <c r="F24" t="s">
-        <v>114</v>
+        <v>278</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24" t="str">
+        <f t="shared" si="0"/>
+        <v>ry 5 minutes</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>299</v>
+        <v>102</v>
       </c>
       <c r="C25" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="D25" t="s">
-        <v>116</v>
+        <v>186</v>
       </c>
       <c r="E25" t="s">
-        <v>117</v>
+        <v>233</v>
       </c>
       <c r="F25" t="s">
-        <v>118</v>
+        <v>279</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25" t="str">
+        <f t="shared" si="0"/>
+        <v>enna height certificate</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>300</v>
+        <v>103</v>
       </c>
       <c r="C26" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="D26" t="s">
-        <v>120</v>
+        <v>187</v>
       </c>
       <c r="E26" t="s">
-        <v>121</v>
+        <v>234</v>
       </c>
       <c r="F26" t="s">
-        <v>122</v>
+        <v>280</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26" t="str">
+        <f t="shared" si="0"/>
+        <v>tune</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>301</v>
+        <v>104</v>
       </c>
       <c r="C27" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="D27" t="s">
-        <v>124</v>
+        <v>188</v>
       </c>
       <c r="E27" t="s">
-        <v>125</v>
+        <v>24</v>
       </c>
       <c r="F27" t="s">
-        <v>126</v>
+        <v>281</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27" t="str">
+        <f t="shared" si="0"/>
+        <v>etime</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>302</v>
+        <v>105</v>
       </c>
       <c r="C28" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="D28" t="s">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c r="E28" t="s">
-        <v>129</v>
+        <v>235</v>
       </c>
       <c r="F28" t="s">
-        <v>130</v>
+        <v>282</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>303</v>
+        <v>106</v>
       </c>
       <c r="C29" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="D29" t="s">
-        <v>132</v>
+        <v>190</v>
       </c>
       <c r="E29" t="s">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="F29" t="s">
-        <v>134</v>
+        <v>283</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29" t="str">
+        <f t="shared" si="0"/>
+        <v>hibited</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>304</v>
+        <v>107</v>
       </c>
       <c r="C30" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="D30" t="s">
-        <v>136</v>
+        <v>191</v>
       </c>
       <c r="E30" t="s">
-        <v>137</v>
+        <v>237</v>
       </c>
       <c r="F30" t="s">
-        <v>138</v>
+        <v>284</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30" t="str">
+        <f t="shared" si="0"/>
+        <v>ly schedule</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>305</v>
+        <v>108</v>
       </c>
       <c r="C31" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D31" t="s">
-        <v>140</v>
+        <v>192</v>
       </c>
       <c r="E31" t="s">
-        <v>141</v>
+        <v>238</v>
       </c>
       <c r="F31" t="s">
-        <v>142</v>
+        <v>285</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31" t="str">
+        <f t="shared" si="0"/>
+        <v>s broadcasting</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>306</v>
+        <v>109</v>
       </c>
       <c r="C32" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D32" t="s">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="E32" t="s">
-        <v>145</v>
+        <v>239</v>
       </c>
       <c r="F32" t="s">
-        <v>146</v>
+        <v>286</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32" t="str">
+        <f t="shared" si="0"/>
+        <v>motion to higher grade</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>307</v>
+        <v>110</v>
       </c>
       <c r="C33" t="s">
         <v>147</v>
       </c>
       <c r="D33" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="E33" t="s">
-        <v>149</v>
+        <v>240</v>
       </c>
       <c r="F33" t="s">
-        <v>150</v>
+        <v>287</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33" t="str">
+        <f t="shared" si="0"/>
+        <v>made of copper</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>308</v>
+        <v>111</v>
       </c>
       <c r="C34" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D34" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="E34" t="s">
-        <v>153</v>
+        <v>241</v>
       </c>
       <c r="F34" t="s">
-        <v>154</v>
+        <v>288</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H34" t="str">
+        <f t="shared" si="0"/>
+        <v>owed on 2m band</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>309</v>
+        <v>112</v>
       </c>
       <c r="C35" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D35" t="s">
-        <v>156</v>
+        <v>196</v>
       </c>
       <c r="E35" t="s">
-        <v>157</v>
+        <v>242</v>
       </c>
       <c r="F35" t="s">
-        <v>158</v>
+        <v>289</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35" t="str">
+        <f t="shared" si="0"/>
+        <v>king to DX</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>310</v>
+        <v>113</v>
       </c>
       <c r="C36" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D36" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="E36" t="s">
-        <v>161</v>
+        <v>243</v>
       </c>
       <c r="F36" t="s">
-        <v>162</v>
+        <v>290</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36" t="str">
+        <f t="shared" si="0"/>
+        <v>mercial use</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>311</v>
+        <v>114</v>
       </c>
       <c r="C37" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="D37" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="E37" t="s">
-        <v>165</v>
+        <v>244</v>
       </c>
       <c r="F37" t="s">
-        <v>166</v>
+        <v>291</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37" t="str">
+        <f t="shared" si="0"/>
+        <v>den transmission</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>312</v>
+        <v>115</v>
       </c>
       <c r="C38" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="D38" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="E38" t="s">
-        <v>169</v>
+        <v>245</v>
       </c>
       <c r="F38" t="s">
-        <v>170</v>
+        <v>292</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H38" t="str">
+        <f t="shared" si="0"/>
+        <v>-made RFI only</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>313</v>
+        <v>116</v>
       </c>
       <c r="C39" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="D39" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="E39" t="s">
-        <v>173</v>
+        <v>246</v>
       </c>
       <c r="F39" t="s">
-        <v>174</v>
+        <v>293</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H39" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> government employee</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>314</v>
+        <v>117</v>
       </c>
       <c r="C40" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="D40" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="E40" t="s">
-        <v>177</v>
+        <v>247</v>
       </c>
       <c r="F40" t="s">
-        <v>178</v>
+        <v>294</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H40" t="str">
+        <f t="shared" si="0"/>
+        <v>bic and Chinese only</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>315</v>
+        <v>118</v>
       </c>
       <c r="C41" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="D41" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="E41" t="s">
-        <v>181</v>
+        <v>248</v>
       </c>
       <c r="F41" t="s">
-        <v>182</v>
+        <v>295</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>284</v>
+        <v>87</v>
       </c>
       <c r="C42" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="D42" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="E42" t="s">
-        <v>185</v>
+        <v>249</v>
       </c>
       <c r="F42" t="s">
-        <v>186</v>
+        <v>257</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>283</v>
+        <v>86</v>
       </c>
       <c r="C43" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="D43" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E43" t="s">
-        <v>189</v>
+        <v>250</v>
       </c>
       <c r="F43" t="s">
-        <v>190</v>
+        <v>36</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>282</v>
+        <v>85</v>
       </c>
       <c r="C44" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="D44" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="E44" t="s">
-        <v>193</v>
+        <v>251</v>
       </c>
       <c r="F44" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H44" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>281</v>
+        <v>84</v>
       </c>
       <c r="C45" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="D45" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="E45" t="s">
-        <v>197</v>
+        <v>252</v>
       </c>
       <c r="F45" t="s">
-        <v>198</v>
+        <v>296</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H45" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>280</v>
+        <v>83</v>
       </c>
       <c r="C46" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="D46" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="E46" t="s">
-        <v>199</v>
+        <v>253</v>
       </c>
       <c r="F46" t="s">
-        <v>200</v>
+        <v>252</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>279</v>
+        <v>82</v>
       </c>
       <c r="C47" t="s">
-        <v>201</v>
+        <v>160</v>
       </c>
       <c r="D47" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E47" t="s">
-        <v>203</v>
+        <v>254</v>
       </c>
       <c r="F47" t="s">
-        <v>204</v>
+        <v>297</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H47" t="str">
+        <f t="shared" si="0"/>
+        <v>ning</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>278</v>
+        <v>81</v>
       </c>
       <c r="C48" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="D48" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E48" t="s">
-        <v>207</v>
+        <v>255</v>
       </c>
       <c r="F48" t="s">
-        <v>208</v>
+        <v>298</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H48" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>277</v>
+        <v>80</v>
       </c>
       <c r="C49" t="s">
+        <v>162</v>
+      </c>
+      <c r="D49" t="s">
         <v>209</v>
       </c>
-      <c r="D49" t="s">
-        <v>210</v>
-      </c>
       <c r="E49" t="s">
-        <v>211</v>
+        <v>256</v>
       </c>
       <c r="F49" t="s">
-        <v>212</v>
+        <v>299</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H49" t="str">
+        <f t="shared" si="0"/>
+        <v>, S-9, T-5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>276</v>
+        <v>79</v>
       </c>
       <c r="C50" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="D50" t="s">
-        <v>213</v>
+        <v>158</v>
       </c>
       <c r="E50" t="s">
-        <v>214</v>
+        <v>257</v>
       </c>
       <c r="F50" t="s">
-        <v>215</v>
+        <v>157</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>316</v>
+        <v>119</v>
       </c>
       <c r="C51" t="s">
-        <v>216</v>
+        <v>163</v>
       </c>
       <c r="D51" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E51" t="s">
-        <v>218</v>
+        <v>258</v>
       </c>
       <c r="F51" t="s">
-        <v>219</v>
+        <v>300</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H51" t="str">
+        <f t="shared" si="0"/>
+        <v>e Propagation Control</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>317</v>
+        <v>120</v>
       </c>
       <c r="C52" t="s">
-        <v>220</v>
+        <v>164</v>
       </c>
       <c r="D52" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="E52" t="s">
-        <v>222</v>
+        <v>259</v>
       </c>
       <c r="F52" t="s">
-        <v>223</v>
+        <v>301</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H52" t="str">
+        <f t="shared" si="0"/>
+        <v>ercontinental Telecom Utility</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>318</v>
+        <v>121</v>
       </c>
       <c r="C53" t="s">
-        <v>224</v>
+        <v>165</v>
       </c>
       <c r="D53" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="E53" t="s">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="F53" t="s">
-        <v>227</v>
+        <v>302</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H53" t="str">
+        <f t="shared" si="0"/>
+        <v>nge Frequency</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>319</v>
+        <v>122</v>
       </c>
       <c r="C54" t="s">
-        <v>228</v>
+        <v>64</v>
       </c>
       <c r="D54" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="E54" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="F54" t="s">
-        <v>231</v>
+        <v>303</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H54" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> I call you again?</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>320</v>
+        <v>123</v>
       </c>
       <c r="C55" t="s">
-        <v>232</v>
+        <v>166</v>
       </c>
       <c r="D55" t="s">
-        <v>233</v>
+        <v>161</v>
       </c>
       <c r="E55" t="s">
-        <v>234</v>
+        <v>35</v>
       </c>
       <c r="F55" t="s">
-        <v>235</v>
+        <v>41</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H55" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>321</v>
+        <v>124</v>
       </c>
       <c r="C56" t="s">
-        <v>236</v>
+        <v>167</v>
       </c>
       <c r="D56" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="E56" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="F56" t="s">
-        <v>239</v>
+        <v>304</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H56" t="str">
+        <f t="shared" si="0"/>
+        <v>ital modes</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>322</v>
+        <v>125</v>
       </c>
       <c r="C57" t="s">
-        <v>240</v>
+        <v>168</v>
       </c>
       <c r="D57" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="E57" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="F57" t="s">
-        <v>243</v>
+        <v>305</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H57" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> receiver</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>323</v>
+        <v>126</v>
       </c>
       <c r="C58" t="s">
-        <v>244</v>
+        <v>169</v>
       </c>
       <c r="D58" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="E58" t="s">
-        <v>246</v>
+        <v>141</v>
       </c>
       <c r="F58" t="s">
-        <v>247</v>
+        <v>188</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H58" t="str">
+        <f t="shared" si="0"/>
+        <v>years</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>324</v>
+        <v>127</v>
       </c>
       <c r="C59" t="s">
-        <v>248</v>
+        <v>170</v>
       </c>
       <c r="D59" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="E59" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="F59" t="s">
-        <v>251</v>
+        <v>306</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H59" t="str">
+        <f t="shared" si="0"/>
+        <v>ipment type</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>325</v>
+        <v>128</v>
       </c>
       <c r="C60" t="s">
-        <v>252</v>
+        <v>171</v>
       </c>
       <c r="D60" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="E60" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="F60" t="s">
-        <v>255</v>
+        <v>307</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H60" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>326</v>
+        <v>129</v>
       </c>
       <c r="C61" t="s">
-        <v>256</v>
+        <v>172</v>
       </c>
       <c r="D61" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="E61" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="F61" t="s">
-        <v>259</v>
+        <v>308</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H61" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> MHz</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>289</v>
+        <v>92</v>
       </c>
       <c r="C62" t="s">
-        <v>260</v>
+        <v>173</v>
       </c>
       <c r="D62" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="E62" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="F62" t="s">
-        <v>263</v>
+        <v>309</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H62" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>288</v>
+        <v>91</v>
       </c>
       <c r="C63" t="s">
-        <v>264</v>
+        <v>174</v>
       </c>
       <c r="D63" t="s">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="E63" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F63" t="s">
-        <v>267</v>
+        <v>310</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H63" t="str">
+        <f t="shared" si="0"/>
+        <v>ence requested</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>287</v>
+        <v>90</v>
       </c>
       <c r="C64" t="s">
-        <v>268</v>
+        <v>175</v>
       </c>
       <c r="D64" t="s">
+        <v>222</v>
+      </c>
+      <c r="E64" t="s">
         <v>269</v>
       </c>
-      <c r="E64" t="s">
-        <v>270</v>
-      </c>
       <c r="F64" t="s">
-        <v>271</v>
+        <v>156</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H64" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>286</v>
+        <v>89</v>
       </c>
       <c r="C65" t="s">
-        <v>272</v>
+        <v>176</v>
       </c>
       <c r="D65" t="s">
-        <v>273</v>
+        <v>223</v>
       </c>
       <c r="E65" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F65" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H65" t="str">
+        <f t="shared" si="0"/>
+        <v>ectional Satellite Navigation Guide</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>285</v>
+        <v>88</v>
       </c>
       <c r="C66" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="D66" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="E66" t="s">
-        <v>181</v>
+        <v>248</v>
       </c>
       <c r="F66" t="s">
-        <v>182</v>
+        <v>295</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H66" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>284</v>
+        <v>87</v>
       </c>
       <c r="C67" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="D67" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="E67" t="s">
-        <v>185</v>
+        <v>249</v>
       </c>
       <c r="F67" t="s">
-        <v>186</v>
+        <v>257</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>283</v>
+        <v>86</v>
       </c>
       <c r="C68" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="D68" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E68" t="s">
-        <v>189</v>
+        <v>250</v>
       </c>
       <c r="F68" t="s">
-        <v>190</v>
+        <v>36</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H68" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>282</v>
+        <v>85</v>
       </c>
       <c r="C69" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="D69" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="E69" t="s">
-        <v>193</v>
+        <v>251</v>
       </c>
       <c r="F69" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H69" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>281</v>
+        <v>84</v>
       </c>
       <c r="C70" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="D70" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="E70" t="s">
-        <v>197</v>
+        <v>252</v>
       </c>
       <c r="F70" t="s">
-        <v>198</v>
+        <v>296</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H70" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>280</v>
+        <v>83</v>
       </c>
       <c r="C71" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="D71" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="E71" t="s">
-        <v>199</v>
+        <v>253</v>
       </c>
       <c r="F71" t="s">
-        <v>200</v>
+        <v>252</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H71" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>279</v>
+        <v>82</v>
       </c>
       <c r="C72" t="s">
-        <v>201</v>
+        <v>160</v>
       </c>
       <c r="D72" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E72" t="s">
-        <v>203</v>
+        <v>254</v>
       </c>
       <c r="F72" t="s">
-        <v>204</v>
+        <v>297</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H72" t="str">
+        <f t="shared" si="0"/>
+        <v>ning</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>278</v>
+        <v>81</v>
       </c>
       <c r="C73" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="D73" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E73" t="s">
-        <v>207</v>
+        <v>255</v>
       </c>
       <c r="F73" t="s">
-        <v>208</v>
+        <v>298</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H73" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>277</v>
+        <v>80</v>
       </c>
       <c r="C74" t="s">
+        <v>162</v>
+      </c>
+      <c r="D74" t="s">
         <v>209</v>
       </c>
-      <c r="D74" t="s">
-        <v>210</v>
-      </c>
       <c r="E74" t="s">
-        <v>211</v>
+        <v>256</v>
       </c>
       <c r="F74" t="s">
-        <v>212</v>
+        <v>299</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H74" t="str">
+        <f t="shared" si="0"/>
+        <v>, S-9, T-5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>276</v>
+        <v>79</v>
       </c>
       <c r="C75" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="D75" t="s">
-        <v>213</v>
+        <v>158</v>
       </c>
       <c r="E75" t="s">
-        <v>214</v>
+        <v>257</v>
       </c>
       <c r="F75" t="s">
-        <v>215</v>
+        <v>157</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>66</v>
+      </c>
+      <c r="H75" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
   </sheetData>
